--- a/Regelsæt.xlsx
+++ b/Regelsæt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\RPA\Leverancer\Påmindelse om indberetning til Danmarks statistik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA31E8F-0578-48FD-996F-91BCB933C709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE7B22B-3C44-4F36-881C-D411372EE869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,24 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
-    <t>Ungerådgivningen Social 1 - Rådgivere Børn</t>
-  </si>
-  <si>
-    <t>Ungerådgivningen Social 2 - Rådgivere Børn</t>
-  </si>
-  <si>
-    <t>Ungerådgivningen Special - Rådgivere Børn</t>
-  </si>
-  <si>
-    <t>Ungerådgivningen Ungeindsats - Rådgivere Børn</t>
-  </si>
-  <si>
-    <t>CFU Familierådgivningen</t>
-  </si>
-  <si>
-    <t>CFU Familierådgivningen - Rådgivere</t>
-  </si>
-  <si>
     <t>BL § 12 stk. 3 - Anbringelse i midlertidigt ikke godkendt tilbud</t>
   </si>
   <si>
@@ -292,6 +274,24 @@
   </si>
   <si>
     <t>Statistikindsats</t>
+  </si>
+  <si>
+    <t>Ungerådgivningen 1</t>
+  </si>
+  <si>
+    <t>Ungerådgivningen 2</t>
+  </si>
+  <si>
+    <t>Ungerådgivningen 3</t>
+  </si>
+  <si>
+    <t>Familierådgivningen</t>
+  </si>
+  <si>
+    <t>Ungerådgivningen Social 1 - Vagt &amp; Visitation</t>
+  </si>
+  <si>
+    <t>Ungerådgivningen Special - Kompensation</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,442 +634,442 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
